--- a/AED withdrawal relapse risk calculator.xlsx
+++ b/AED withdrawal relapse risk calculator.xlsx
@@ -16,25 +16,25 @@
     <sheet name="Long.risk" sheetId="9" state="veryHidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="age.on.num">Recur.values!$C$2:$C$82</definedName>
-    <definedName name="Benign">Recur.values!$F$2:$F$3</definedName>
-    <definedName name="Delay">Recur.values!$G$2:$G$3</definedName>
-    <definedName name="duration.sf">Recur.values!$B$2:$B$26</definedName>
-    <definedName name="EEG">Recur.values!$H$2:$H$3</definedName>
-    <definedName name="fam.hist">Long.values!$E$2:$E$3</definedName>
-    <definedName name="focal">Long.values!$G$2:$G$3</definedName>
-    <definedName name="hist.feb">Recur.values!$D$2:$D$3</definedName>
-    <definedName name="n.aeds">Long.values!$C$2:$C$11</definedName>
-    <definedName name="n.seizures">Recur.values!$E$2:$E$3</definedName>
-    <definedName name="sex">Long.values!$D$2:$D$3</definedName>
-    <definedName name="ttsf">Recur.values!$A$2:$A$42</definedName>
+    <definedName name="age.on.num">Recur.values!$C$2:$C$83</definedName>
+    <definedName name="Benign">Recur.values!$F$2:$F$4</definedName>
+    <definedName name="Delay">Recur.values!$G$2:$G$4</definedName>
+    <definedName name="duration.sf">Recur.values!$B$2:$B$27</definedName>
+    <definedName name="EEG">Recur.values!$H$2:$H$4</definedName>
+    <definedName name="fam.hist">Long.values!$E$2:$E$4</definedName>
+    <definedName name="focal">Long.values!$G$2:$G$4</definedName>
+    <definedName name="hist.feb">Recur.values!$D$2:$D$4</definedName>
+    <definedName name="n.aeds">Long.values!$C$2:$C$12</definedName>
+    <definedName name="n.seizures">Recur.values!$E$2:$E$4</definedName>
+    <definedName name="sex">Long.values!$D$2:$D$4</definedName>
+    <definedName name="ttsf">Recur.values!$A$2:$A$43</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="58">
   <si>
     <t>Nomogram Points</t>
   </si>
@@ -88,12 +88,6 @@
   </si>
   <si>
     <t>Recurrence risk 5 years</t>
-  </si>
-  <si>
-    <t>Age at onset of epilepsy</t>
-  </si>
-  <si>
-    <t>Seizure free interval, in years</t>
   </si>
   <si>
     <t>History of febrile seizures</t>
@@ -251,7 +245,52 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>≥1 year at 10 years. This figure remains the same at 15 years, indicating it is the chance of long-term seizure freedom.</t>
+      <t>≥1 year at 10 years. Interpretation: even after seizure recurrence a patient can become seizure free again. Hence, the chance of seizure freedom at ten years is much higher than the chance of not having a seizure recurrence.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chance of seizure freedom </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">≥ 1 year </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at 10 years*</t>
+    </r>
+  </si>
+  <si>
+    <t>Time since last seizure, in years (seizure free interval)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Points 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Long-term  outcome</t>
     </r>
   </si>
   <si>
@@ -269,6 +308,32 @@
       </rPr>
       <t>Recurrence risk</t>
     </r>
+  </si>
+  <si>
+    <t>Age at onset of epilepsy, in years</t>
+  </si>
+  <si>
+    <t>(select one)</t>
+  </si>
+  <si>
+    <t>Date of version calculation sheet: 2017-03-16</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Calculation of individual seizure outcome of AED withdrawal for seizure free people with epilepsy. Calculations are based on nomograms as presented in Lamberink et al., </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Journal</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -278,13 +343,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Points 
+      <t xml:space="preserve">, vol(issue):pp-pp.
 </t>
     </r>
     <r>
@@ -295,39 +354,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Long-term seizure outcome</t>
+      <t xml:space="preserve">Instructions: select the correct values in the green drop-down menu's. The box at the bottom will show the corresponding risks.
+</t>
     </r>
   </si>
   <si>
-    <t>Reference: Journal. Year. Vol(issue):pp-pp</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Calculation of individual seizure outcome of AED withdrawal for seizure free people with epilepsy. Calculations are based on nomograms as presented in Lamberink et al., 2017.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Instructions: select the correct values in the green drop-down menu's. The box at the bottom will show the corresponding risks.
-Interpretation: even after seizure recurrence a patient can become seizure free again. Hence, the chance of seizure freedom at ten years is much higher than the chance of not having a seizure recurrence.</t>
-    </r>
-  </si>
-  <si>
-    <t>Chance of seizure freedom at 10 years*
-(with or without AEDs)</t>
+    <t>Reference: Journal. 2017. Vol(issue):pp-pp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +389,22 @@
       <family val="2"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -576,9 +631,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -601,14 +653,33 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,184 +983,209 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad1"/>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="20.140625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="7"/>
+    <col min="5" max="5" width="51.140625" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+    <row r="1" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="22">
-        <f>INDEX(Recur.nomogram!A2:I107,MATCH(B3,Recur.nomogram!B2:B107,0),1)</f>
+      <c r="B3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="21">
+        <f>INDEX(Recur.nomogram!A2:I108,MATCH(B3,Recur.nomogram!B2:B108,0),1)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="22">
-        <f>INDEX(Long.nomogram!A2:I68,MATCH(B3,Long.nomogram!B2:B68,0),1)</f>
+      <c r="D3" s="21">
+        <f>INDEX(Long.nomogram!A2:I69,MATCH(B3,Long.nomogram!B2:B69,0),1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="21">
+        <f>INDEX(Recur.nomogram!A2:I108,MATCH(B4,Recur.nomogram!C2:C108,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <f>INDEX(Long.nomogram!A2:I69,MATCH(B4,Long.nomogram!C2:C69,0),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21">
+        <f>INDEX(Long.nomogram!A2:I69,MATCH(B5,Long.nomogram!D2:D69,0),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
+        <f>INDEX(Long.nomogram!A2:I69,MATCH(B6,Long.nomogram!E2:E69,0),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="21">
+        <f>INDEX(Recur.nomogram!A2:I108,MATCH(B7,Recur.nomogram!D2:D108,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21">
+        <f>INDEX(Long.nomogram!A2:I69,MATCH(B8,Long.nomogram!F2:F69,0),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="21">
+        <f>INDEX(Recur.nomogram!A2:I108,MATCH(B9,Recur.nomogram!E2:E108,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="21">
+        <f>INDEX(Recur.nomogram!A2:I108,MATCH(B10,Recur.nomogram!F2:F108,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="21">
+        <f>INDEX(Long.nomogram!A2:I69,MATCH(B10,Long.nomogram!G2:G69,0),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="21">
+        <f>INDEX(Recur.nomogram!A2:I108,MATCH(B11,Recur.nomogram!G2:G108,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21">
+        <f>INDEX(Long.nomogram!A2:I69,MATCH(B12,Long.nomogram!H2:H69,0),1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="22">
-        <f>INDEX(Recur.nomogram!A2:I107,MATCH(B4,Recur.nomogram!C2:C107,0),1)</f>
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="21">
+        <f>INDEX(Recur.nomogram!A2:I108,MATCH(B13,Recur.nomogram!H2:H108,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="22">
-        <f>INDEX(Long.nomogram!A2:I68,MATCH(B4,Long.nomogram!C2:C68,0),1)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="e">
-        <f>INDEX(Long.nomogram!A2:I68,MATCH(B5,Long.nomogram!D2:D68,0),1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="e">
-        <f>INDEX(Long.nomogram!A2:I68,MATCH(B6,Long.nomogram!E2:E68,0),1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="22">
-        <f>INDEX(Recur.nomogram!A2:I107,MATCH(B7,Recur.nomogram!D2:D107,0),1)</f>
-        <v>2.5</v>
-      </c>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22" t="e">
-        <f>INDEX(Long.nomogram!A2:I68,MATCH(B8,Long.nomogram!F2:F68,0),1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="22" t="e">
-        <f>INDEX(Recur.nomogram!A2:I107,MATCH(B9,Recur.nomogram!E2:E107,0),1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="22" t="e">
-        <f>INDEX(Recur.nomogram!A2:I107,MATCH(B10,Recur.nomogram!F2:F107,0),1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D10" s="22" t="e">
-        <f>INDEX(Long.nomogram!A2:I68,MATCH(B10,Long.nomogram!G2:G68,0),1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="22" t="e">
-        <f>INDEX(Recur.nomogram!A2:I107,MATCH(B11,Recur.nomogram!G2:G107,0),1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22" t="e">
-        <f>INDEX(Long.nomogram!A2:I68,MATCH(B12,Long.nomogram!H2:H68,0),1)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="22" t="e">
-        <f>INDEX(Recur.nomogram!A2:I107,MATCH(B13,Recur.nomogram!H2:H107,0),1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="23" t="e">
-        <f>INDEX(Recur.nomogram!A2:I107,MATCH(B14,Recur.nomogram!I2:I107,0),1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D14" s="23" t="e">
-        <f>INDEX(Long.nomogram!A2:I68,MATCH(B14,Long.nomogram!I2:I68,0),1)</f>
-        <v>#N/A</v>
+      <c r="B14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="22">
+        <f>INDEX(Recur.nomogram!A2:I108,MATCH(B14,Recur.nomogram!I2:I108,0),1)</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
+        <f>INDEX(Long.nomogram!A2:I69,MATCH(B14,Long.nomogram!I2:I69,0),1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1097,13 +1193,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="13"/>
-      <c r="C15" s="15" t="e">
+      <c r="C15" s="15">
         <f>SUM(C3:C14)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D15" s="15" t="e">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15">
         <f>SUM(D3:D14)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1112,66 +1208,74 @@
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="16" t="e">
-        <f>INDEX(Recur.risk!A2:C99,MATCH(C15,Recur.risk!A2:A99,0),2)</f>
-        <v>#N/A</v>
+      <c r="C17" s="16" t="str">
+        <f>INDEX(Recur.risk!A2:C114,MATCH(C15,Recur.risk!A2:A114,0),2)</f>
+        <v>&lt;10%</v>
       </c>
       <c r="D17" s="17"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="18" t="e">
-        <f>INDEX(Recur.risk!A2:C99,MATCH(C15,Recur.risk!A2:A99,0),3)</f>
-        <v>#N/A</v>
+      <c r="C18" s="18" t="str">
+        <f>INDEX(Recur.risk!A2:C114,MATCH(C15,Recur.risk!A2:A114,0),3)</f>
+        <v>&lt;10%</v>
       </c>
       <c r="D18" s="19"/>
     </row>
-    <row r="19" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
-      <c r="B19" s="33" t="s">
-        <v>55</v>
+      <c r="B19" s="30" t="s">
+        <v>49</v>
       </c>
       <c r="C19" s="20"/>
-      <c r="D19" s="21" t="e">
-        <f>INDEX(Long.risk!A2:B82,MATCH(D15,Long.risk!A2:A82,0),2)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="30" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="33" t="str">
+        <f>INDEX(Long.risk!A2:B97,MATCH(D15,Long.risk!A2:A97,0),2)</f>
+        <v>&gt;99%</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+    </row>
+    <row r="20" spans="1:7" s="29" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection password="8D79" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <dataValidations count="12">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
@@ -1219,14 +1323,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad2"/>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:I107"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:I107"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:I107"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1351,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1265,376 +1369,397 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
+      <c r="B2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>0</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
       <c r="D3">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>23</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7">
+        <v>1.5</v>
+      </c>
+      <c r="D7">
         <v>1</v>
-      </c>
-      <c r="C7">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2.5</v>
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
+        <v>2.5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
+        <v>3.5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>4.5</v>
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>5.5</v>
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
+        <v>5.5</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>6.5</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>17</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
         <v>6.5</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
         <v>6.5</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="28">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
         <v>6.5</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="28">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
         <v>6.5</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
         <v>6.5</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
         <v>6.5</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
         <v>6.5</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
         <v>6.5</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
         <v>6.5</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
         <v>6.5</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
         <v>6.5</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="27">
         <v>6.5</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
         <v>6.5</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
         <v>6.5</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
         <v>6.5</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
         <v>6.5</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="27">
         <v>6.5</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
         <v>6.5</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="28">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="27">
         <v>6.5</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="28">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="27">
         <v>6.5</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="28">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="27">
         <v>6.5</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="28">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="27">
         <v>6.5</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>7</v>
-      </c>
-      <c r="B39">
-        <v>5</v>
-      </c>
-      <c r="D39">
-        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>7</v>
       </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
       <c r="D40">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1642,7 +1767,7 @@
         <v>7</v>
       </c>
       <c r="D41">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1650,7 +1775,7 @@
         <v>7</v>
       </c>
       <c r="D42">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1658,29 +1783,29 @@
         <v>7</v>
       </c>
       <c r="D43">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>7.5</v>
-      </c>
-      <c r="B44">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>7.5</v>
       </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>16</v>
+      </c>
       <c r="D45">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1688,7 +1813,7 @@
         <v>7.5</v>
       </c>
       <c r="D46">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1696,7 +1821,7 @@
         <v>7.5</v>
       </c>
       <c r="D47">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1704,7 +1829,7 @@
         <v>7.5</v>
       </c>
       <c r="D48">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1712,18 +1837,15 @@
         <v>7.5</v>
       </c>
       <c r="D49">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>8</v>
-      </c>
-      <c r="B50">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D50">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1731,18 +1853,21 @@
         <v>8</v>
       </c>
       <c r="B51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>8</v>
       </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
       <c r="D52">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1750,7 +1875,7 @@
         <v>8</v>
       </c>
       <c r="D53">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1758,21 +1883,15 @@
         <v>8</v>
       </c>
       <c r="D54">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="B55">
-        <v>9</v>
-      </c>
-      <c r="C55">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D55">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1780,10 +1899,13 @@
         <v>8.5</v>
       </c>
       <c r="B56">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1791,10 +1913,10 @@
         <v>8.5</v>
       </c>
       <c r="B57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D57">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1802,10 +1924,10 @@
         <v>8.5</v>
       </c>
       <c r="B58">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,18 +1935,21 @@
         <v>8.5</v>
       </c>
       <c r="B59">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D59">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1832,10 +1957,7 @@
         <v>9</v>
       </c>
       <c r="B61">
-        <v>15</v>
-      </c>
-      <c r="D61">
-        <v>54</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1843,10 +1965,10 @@
         <v>9</v>
       </c>
       <c r="B62">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1854,10 +1976,10 @@
         <v>9</v>
       </c>
       <c r="B63">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1865,10 +1987,10 @@
         <v>9</v>
       </c>
       <c r="B64">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1876,10 +1998,10 @@
         <v>9</v>
       </c>
       <c r="B65">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1887,10 +2009,10 @@
         <v>9</v>
       </c>
       <c r="B66">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1898,15 +2020,18 @@
         <v>9</v>
       </c>
       <c r="B67">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="B68">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1914,13 +2039,7 @@
         <v>9.5</v>
       </c>
       <c r="B69">
-        <v>23</v>
-      </c>
-      <c r="C69">
-        <v>14</v>
-      </c>
-      <c r="D69">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1928,10 +2047,13 @@
         <v>9.5</v>
       </c>
       <c r="B70">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C70">
+        <v>14</v>
       </c>
       <c r="D70">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1939,10 +2061,10 @@
         <v>9.5</v>
       </c>
       <c r="B71">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D71">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,10 +2072,10 @@
         <v>9.5</v>
       </c>
       <c r="B72">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D72">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -1961,10 +2083,10 @@
         <v>9.5</v>
       </c>
       <c r="B73">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -1972,18 +2094,18 @@
         <v>9.5</v>
       </c>
       <c r="B74">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="D74">
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="B75">
-        <v>29</v>
-      </c>
-      <c r="D75">
-        <v>65</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -1991,10 +2113,10 @@
         <v>10</v>
       </c>
       <c r="B76">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D76">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2002,10 +2124,10 @@
         <v>10</v>
       </c>
       <c r="B77">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D77">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2013,10 +2135,10 @@
         <v>10</v>
       </c>
       <c r="B78">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D78">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2024,10 +2146,10 @@
         <v>10</v>
       </c>
       <c r="B79">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D79">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2035,7 +2157,10 @@
         <v>10</v>
       </c>
       <c r="B80">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="D80">
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2043,7 +2168,7 @@
         <v>10</v>
       </c>
       <c r="B81">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,15 +2176,15 @@
         <v>10</v>
       </c>
       <c r="B82">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="B83">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2067,179 +2192,179 @@
         <v>10.5</v>
       </c>
       <c r="B84">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="B85">
         <v>38</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>13</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>70</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="28">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="27">
         <v>10.5</v>
       </c>
-      <c r="B85">
+      <c r="B86">
         <v>39</v>
       </c>
-      <c r="D85">
+      <c r="D86">
         <v>71</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="28">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="27">
         <v>10.5</v>
       </c>
-      <c r="B86">
+      <c r="B87">
         <v>40</v>
       </c>
-      <c r="D86">
+      <c r="D87">
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="28">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="27">
         <v>10.5</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="28">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="27">
         <v>10.5</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="28">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="27">
         <v>10.5</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="28">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="27">
         <v>11</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>76</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="28">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="27">
         <v>11</v>
       </c>
-      <c r="D91">
+      <c r="D92">
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="28">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="27">
         <v>11</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="28">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="27">
         <v>11</v>
       </c>
-      <c r="D93">
+      <c r="D94">
         <v>79</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="28">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="27">
         <v>11</v>
       </c>
-      <c r="D94">
+      <c r="D95">
         <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="C95">
-        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="C96">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="C97">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C98">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C99">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C100">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C101">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C102">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C103">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C104">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2247,7 +2372,7 @@
         <v>20</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2255,7 +2380,7 @@
         <v>20</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2263,6 +2388,14 @@
         <v>20</v>
       </c>
       <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>20</v>
+      </c>
+      <c r="C108">
         <v>0</v>
       </c>
     </row>
@@ -2276,10 +2409,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad3"/>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I107"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2292,7 +2425,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2310,652 +2443,679 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>23</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>40</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C44">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C45">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C46">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C47">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C48">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C54">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C55">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C56">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C57">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C58">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C59">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C60">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C61">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C62">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C64">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C65">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C66">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C67">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C68">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C69">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C70">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C71">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C72">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C73">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C74">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C75">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C76">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C77">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C78">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="79" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C79">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C80">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C81">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C82">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="8D79" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad4"/>
-  <dimension ref="A1:C99"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I107"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2965,1091 +3125,1256 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.1</v>
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5">
-        <v>0.10666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5">
-        <v>0.11333333333333334</v>
+        <v>0.10666666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="5">
-        <v>0.12000000000000002</v>
+        <v>0.11333333333333334</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5">
-        <v>0.12666666666666668</v>
+        <v>0.12000000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5">
-        <v>0.13333333333333336</v>
+        <v>0.12666666666666668</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>16</v>
-      </c>
-      <c r="B26" s="5">
-        <v>0.1</v>
+        <v>15.5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
       </c>
       <c r="C26" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.13333333333333336</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="B27" s="5">
-        <v>0.10625000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C27" s="5">
-        <v>0.1466666666666667</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="B28" s="5">
-        <v>0.1125</v>
+        <v>0.10625000000000001</v>
       </c>
       <c r="C28" s="5">
-        <v>0.15333333333333338</v>
+        <v>0.1466666666666667</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="B29" s="5">
-        <v>0.11875000000000001</v>
+        <v>0.1125</v>
       </c>
       <c r="C29" s="5">
-        <v>0.16000000000000003</v>
+        <v>0.15333333333333338</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="B30" s="5">
-        <v>0.125</v>
+        <v>0.11875000000000001</v>
       </c>
       <c r="C30" s="5">
-        <v>0.16666666666666669</v>
+        <v>0.16000000000000003</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="B31" s="5">
-        <v>0.13125000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="C31" s="5">
-        <v>0.17333333333333337</v>
+        <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="B32" s="5">
-        <v>0.13750000000000001</v>
+        <v>0.13125000000000001</v>
       </c>
       <c r="C32" s="5">
-        <v>0.18000000000000005</v>
+        <v>0.17333333333333337</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="B33" s="5">
-        <v>0.14375000000000002</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="C33" s="5">
-        <v>0.1866666666666667</v>
+        <v>0.18000000000000005</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="B34" s="5">
-        <v>0.15000000000000002</v>
+        <v>0.14375000000000002</v>
       </c>
       <c r="C34" s="5">
-        <v>0.19333333333333338</v>
+        <v>0.1866666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="B35" s="5">
-        <v>0.15625</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="C35" s="5">
-        <v>0.20000000000000007</v>
+        <v>0.19333333333333338</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="B36" s="5">
-        <v>0.16250000000000001</v>
+        <v>0.15625</v>
       </c>
       <c r="C36" s="5">
-        <v>0.21111111111111117</v>
+        <v>0.20000000000000007</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="B37" s="5">
-        <v>0.16875000000000001</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="C37" s="5">
-        <v>0.22222222222222227</v>
+        <v>0.21111111111111117</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>22</v>
+        <v>21.5</v>
       </c>
       <c r="B38" s="5">
-        <v>0.17500000000000002</v>
+        <v>0.16875000000000001</v>
       </c>
       <c r="C38" s="5">
-        <v>0.23333333333333336</v>
+        <v>0.22222222222222227</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="B39" s="5">
-        <v>0.18125000000000002</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="C39" s="5">
-        <v>0.24444444444444446</v>
+        <v>0.23333333333333336</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="B40" s="5">
-        <v>0.1875</v>
+        <v>0.18125000000000002</v>
       </c>
       <c r="C40" s="5">
-        <v>0.25555555555555554</v>
+        <v>0.24444444444444446</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>23.5</v>
+        <v>23</v>
       </c>
       <c r="B41" s="5">
-        <v>0.19375000000000001</v>
+        <v>0.1875</v>
       </c>
       <c r="C41" s="5">
-        <v>0.26666666666666666</v>
+        <v>0.25555555555555554</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="B42" s="5">
-        <v>0.2</v>
+        <v>0.19375000000000001</v>
       </c>
       <c r="C42" s="5">
-        <v>0.27777777777777779</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="B43" s="5">
-        <v>0.21111111111111111</v>
+        <v>0.2</v>
       </c>
       <c r="C43" s="5">
-        <v>0.28888888888888886</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="B44" s="5">
-        <v>0.22222222222222221</v>
+        <v>0.21111111111111111</v>
       </c>
       <c r="C44" s="5">
-        <v>0.29999999999999993</v>
+        <v>0.28888888888888886</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>25.5</v>
+        <v>25</v>
       </c>
       <c r="B45" s="5">
-        <v>0.23333333333333331</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="C45" s="5">
-        <v>0.31249999999999994</v>
+        <v>0.29999999999999993</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="B46" s="5">
-        <v>0.24444444444444441</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="C46" s="5">
-        <v>0.32499999999999996</v>
+        <v>0.31249999999999994</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>26.5</v>
+        <v>26</v>
       </c>
       <c r="B47" s="5">
-        <v>0.25555555555555554</v>
+        <v>0.24444444444444441</v>
       </c>
       <c r="C47" s="5">
-        <v>0.33749999999999991</v>
+        <v>0.32499999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>27</v>
+        <v>26.5</v>
       </c>
       <c r="B48" s="5">
-        <v>0.26666666666666661</v>
+        <v>0.25555555555555554</v>
       </c>
       <c r="C48" s="5">
-        <v>0.34999999999999992</v>
+        <v>0.33749999999999991</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>27.5</v>
+        <v>27</v>
       </c>
       <c r="B49" s="5">
-        <v>0.27777777777777768</v>
+        <v>0.26666666666666661</v>
       </c>
       <c r="C49" s="5">
-        <v>0.36249999999999993</v>
+        <v>0.34999999999999992</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="B50" s="5">
-        <v>0.28888888888888881</v>
+        <v>0.27777777777777768</v>
       </c>
       <c r="C50" s="5">
-        <v>0.37499999999999994</v>
+        <v>0.36249999999999993</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="B51" s="5">
-        <v>0.29999999999999993</v>
+        <v>0.28888888888888881</v>
       </c>
       <c r="C51" s="5">
-        <v>0.38749999999999996</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="B52" s="5">
-        <v>0.31428571428571422</v>
+        <v>0.29999999999999993</v>
       </c>
       <c r="C52" s="5">
-        <v>0.39999999999999991</v>
+        <v>0.38749999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="B53" s="5">
-        <v>0.32857142857142851</v>
+        <v>0.31428571428571422</v>
       </c>
       <c r="C53" s="5">
-        <v>0.41666666666666663</v>
+        <v>0.39999999999999991</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="B54" s="5">
-        <v>0.34285714285714286</v>
+        <v>0.32857142857142851</v>
       </c>
       <c r="C54" s="5">
-        <v>0.43333333333333329</v>
+        <v>0.41666666666666663</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="B55" s="5">
-        <v>0.35714285714285715</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="C55" s="5">
-        <v>0.45</v>
+        <v>0.43333333333333329</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="B56" s="5">
-        <v>0.37142857142857144</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="C56" s="5">
-        <v>0.46666666666666673</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>31.5</v>
+        <v>31</v>
       </c>
       <c r="B57" s="5">
-        <v>0.38571428571428573</v>
+        <v>0.37142857142857144</v>
       </c>
       <c r="C57" s="5">
-        <v>0.48333333333333339</v>
+        <v>0.46666666666666673</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>32</v>
+        <v>31.5</v>
       </c>
       <c r="B58" s="5">
-        <v>0.4</v>
+        <v>0.38571428571428573</v>
       </c>
       <c r="C58" s="5">
-        <v>0.50000000000000011</v>
+        <v>0.48333333333333339</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="B59" s="5">
-        <v>0.41428571428571431</v>
+        <v>0.4</v>
       </c>
       <c r="C59" s="5">
-        <v>0.51666666666666672</v>
+        <v>0.50000000000000011</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>33</v>
+        <v>32.5</v>
       </c>
       <c r="B60" s="5">
-        <v>0.4285714285714286</v>
+        <v>0.41428571428571431</v>
       </c>
       <c r="C60" s="5">
-        <v>0.53333333333333333</v>
+        <v>0.51666666666666672</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>33.5</v>
+        <v>33</v>
       </c>
       <c r="B61" s="5">
-        <v>0.44285714285714295</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="C61" s="5">
-        <v>0.54999999999999993</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>34</v>
+        <v>33.5</v>
       </c>
       <c r="B62" s="5">
-        <v>0.45714285714285724</v>
+        <v>0.44285714285714295</v>
       </c>
       <c r="C62" s="5">
-        <v>0.56666666666666654</v>
+        <v>0.54999999999999993</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>34.5</v>
+        <v>34</v>
       </c>
       <c r="B63" s="5">
-        <v>0.47142857142857153</v>
+        <v>0.45714285714285724</v>
       </c>
       <c r="C63" s="5">
-        <v>0.58333333333333315</v>
+        <v>0.56666666666666654</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="B64" s="5">
-        <v>0.48571428571428582</v>
+        <v>0.47142857142857153</v>
       </c>
       <c r="C64" s="5">
-        <v>0.59999999999999976</v>
+        <v>0.58333333333333315</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="B65" s="5">
-        <v>0.50000000000000011</v>
+        <v>0.48571428571428582</v>
       </c>
       <c r="C65" s="5">
-        <v>0.61999999999999977</v>
+        <v>0.59999999999999976</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>36</v>
+        <v>35.5</v>
       </c>
       <c r="B66" s="5">
-        <v>0.51666666666666672</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="C66" s="5">
-        <v>0.63999999999999979</v>
+        <v>0.61999999999999977</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="B67" s="5">
-        <v>0.53333333333333333</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="C67" s="5">
-        <v>0.6599999999999997</v>
+        <v>0.63999999999999979</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>37</v>
+        <v>36.5</v>
       </c>
       <c r="B68" s="5">
-        <v>0.54999999999999993</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C68" s="5">
-        <v>0.67999999999999972</v>
+        <v>0.6599999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>37.5</v>
+        <v>37</v>
       </c>
       <c r="B69" s="5">
-        <v>0.56666666666666654</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="C69" s="5">
-        <v>0.69999999999999973</v>
+        <v>0.67999999999999972</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="B70" s="5">
-        <v>0.58333333333333315</v>
+        <v>0.56666666666666654</v>
       </c>
       <c r="C70" s="5">
-        <v>0.71666666666666645</v>
+        <v>0.69999999999999973</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="B71" s="5">
-        <v>0.59999999999999976</v>
+        <v>0.58333333333333315</v>
       </c>
       <c r="C71" s="5">
-        <v>0.73333333333333317</v>
+        <v>0.71666666666666645</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>39</v>
+        <v>38.5</v>
       </c>
       <c r="B72" s="5">
-        <v>0.61999999999999977</v>
+        <v>0.59999999999999976</v>
       </c>
       <c r="C72" s="5">
-        <v>0.74999999999999978</v>
+        <v>0.73333333333333317</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>39.5</v>
+        <v>39</v>
       </c>
       <c r="B73" s="5">
-        <v>0.63999999999999979</v>
+        <v>0.61999999999999977</v>
       </c>
       <c r="C73" s="5">
-        <v>0.7666666666666665</v>
+        <v>0.74999999999999978</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>40</v>
+        <v>39.5</v>
       </c>
       <c r="B74" s="5">
-        <v>0.6599999999999997</v>
+        <v>0.63999999999999979</v>
       </c>
       <c r="C74" s="5">
-        <v>0.78333333333333321</v>
+        <v>0.7666666666666665</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>40.5</v>
+        <v>40</v>
       </c>
       <c r="B75" s="5">
-        <v>0.67999999999999972</v>
+        <v>0.6599999999999997</v>
       </c>
       <c r="C75" s="5">
-        <v>0.79999999999999993</v>
+        <v>0.78333333333333321</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>41</v>
+        <v>40.5</v>
       </c>
       <c r="B76" s="5">
-        <v>0.69999999999999973</v>
+        <v>0.67999999999999972</v>
       </c>
       <c r="C76" s="5">
-        <v>0.81428571428571428</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>41.5</v>
+        <v>41</v>
       </c>
       <c r="B77" s="5">
-        <v>0.71666666666666645</v>
+        <v>0.69999999999999973</v>
       </c>
       <c r="C77" s="5">
-        <v>0.82857142857142851</v>
+        <v>0.81428571428571428</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>42</v>
+        <v>41.5</v>
       </c>
       <c r="B78" s="5">
-        <v>0.73333333333333317</v>
+        <v>0.71666666666666645</v>
       </c>
       <c r="C78" s="5">
-        <v>0.84285714285714286</v>
+        <v>0.82857142857142851</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>42.5</v>
+        <v>42</v>
       </c>
       <c r="B79" s="5">
-        <v>0.74999999999999978</v>
+        <v>0.73333333333333317</v>
       </c>
       <c r="C79" s="5">
-        <v>0.8571428571428571</v>
+        <v>0.84285714285714286</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>43</v>
+        <v>42.5</v>
       </c>
       <c r="B80" s="5">
-        <v>0.7666666666666665</v>
+        <v>0.74999999999999978</v>
       </c>
       <c r="C80" s="5">
-        <v>0.87142857142857144</v>
+        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>43.5</v>
+        <v>43</v>
       </c>
       <c r="B81" s="5">
-        <v>0.78333333333333321</v>
+        <v>0.7666666666666665</v>
       </c>
       <c r="C81" s="5">
-        <v>0.88571428571428568</v>
+        <v>0.87142857142857144</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>44</v>
+        <v>43.5</v>
       </c>
       <c r="B82" s="5">
-        <v>0.79999999999999993</v>
+        <v>0.78333333333333321</v>
       </c>
       <c r="C82" s="5">
-        <v>0.9</v>
+        <v>0.88571428571428568</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>44.5</v>
+        <v>44</v>
       </c>
       <c r="B83" s="5">
-        <v>0.81428571428571428</v>
-      </c>
-      <c r="C83" t="s">
-        <v>29</v>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C83" s="5">
+        <v>0.9</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>45</v>
+        <v>44.5</v>
       </c>
       <c r="B84" s="5">
-        <v>0.82857142857142851</v>
+        <v>0.81428571428571428</v>
       </c>
       <c r="C84" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>45.5</v>
+        <v>45</v>
       </c>
       <c r="B85" s="5">
-        <v>0.84285714285714286</v>
+        <v>0.82857142857142851</v>
       </c>
       <c r="C85" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="B86" s="5">
-        <v>0.8571428571428571</v>
+        <v>0.84285714285714286</v>
       </c>
       <c r="C86" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>46.5</v>
+        <v>46</v>
       </c>
       <c r="B87" s="5">
-        <v>0.87142857142857144</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>47</v>
+        <v>46.5</v>
       </c>
       <c r="B88" s="5">
-        <v>0.88571428571428568</v>
+        <v>0.87142857142857144</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>47.5</v>
+        <v>47</v>
       </c>
       <c r="B89" s="5">
-        <v>0.9</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="C89" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>48</v>
-      </c>
-      <c r="B90" t="s">
-        <v>29</v>
+        <v>47.5</v>
+      </c>
+      <c r="B90" s="5">
+        <v>0.9</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>49</v>
+        <v>48.5</v>
       </c>
       <c r="B92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>49.5</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C93" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>50</v>
+        <v>49.5</v>
       </c>
       <c r="B94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>50.5</v>
+        <v>50</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>51</v>
+        <v>50.5</v>
       </c>
       <c r="B96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C96" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>51.5</v>
+        <v>51</v>
       </c>
       <c r="B97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C97" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="B98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
+        <v>52</v>
+      </c>
+      <c r="B99" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
         <v>52.5</v>
       </c>
-      <c r="B99" t="s">
-        <v>29</v>
-      </c>
-      <c r="C99" t="s">
-        <v>29</v>
+      <c r="B100" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>53</v>
+      </c>
+      <c r="B101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>53.5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>54</v>
+      </c>
+      <c r="B103" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>54.5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>55</v>
+      </c>
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>55.5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>56</v>
+      </c>
+      <c r="B107" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>56.5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>57</v>
+      </c>
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>57.5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>58</v>
+      </c>
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>58.5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>27</v>
+      </c>
+      <c r="C112" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>59</v>
+      </c>
+      <c r="B113" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>59.5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4061,14 +4386,14 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad5"/>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:I107"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:I107"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:I107"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:I107"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4088,167 +4413,188 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
+      <c r="B2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>23</v>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>22</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
+      <c r="E5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="B6">
         <v>2</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>3.5</v>
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>19</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="B11" s="4">
-        <v>6</v>
-      </c>
       <c r="C11">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>7</v>
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4256,23 +4602,23 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>5</v>
       </c>
-      <c r="B14" s="4">
-        <v>9</v>
+      <c r="B14">
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>5</v>
       </c>
-      <c r="B15">
-        <v>10</v>
+      <c r="B15" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -4280,23 +4626,23 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>5</v>
       </c>
-      <c r="B17" s="4">
-        <v>12</v>
+      <c r="B17">
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>5</v>
       </c>
-      <c r="B18">
-        <v>13</v>
+      <c r="B18" s="4">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4304,23 +4650,23 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>5</v>
       </c>
-      <c r="B20" s="4">
-        <v>15</v>
+      <c r="B20">
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21">
-        <v>16</v>
+      <c r="B21" s="4">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4328,23 +4674,23 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>5</v>
       </c>
-      <c r="B23" s="4">
-        <v>18</v>
+      <c r="B23">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>5</v>
       </c>
-      <c r="B24">
-        <v>19</v>
+      <c r="B24" s="4">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4352,23 +4698,23 @@
         <v>5</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>5</v>
       </c>
-      <c r="B26" s="4">
-        <v>21</v>
+      <c r="B26">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>5</v>
       </c>
-      <c r="B27">
-        <v>22</v>
+      <c r="B27" s="4">
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4376,23 +4722,23 @@
         <v>5</v>
       </c>
       <c r="B28">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>5</v>
       </c>
-      <c r="B29" s="4">
-        <v>24</v>
+      <c r="B29">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>5</v>
       </c>
-      <c r="B30">
-        <v>25</v>
+      <c r="B30" s="4">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -4400,23 +4746,23 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>5</v>
       </c>
-      <c r="B32" s="4">
-        <v>27</v>
+      <c r="B32">
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>5</v>
       </c>
-      <c r="B33">
-        <v>28</v>
+      <c r="B33" s="4">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4424,23 +4770,23 @@
         <v>5</v>
       </c>
       <c r="B34">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>5</v>
       </c>
-      <c r="B35" s="4">
-        <v>30</v>
+      <c r="B35">
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>5</v>
       </c>
-      <c r="B36">
-        <v>31</v>
+      <c r="B36" s="4">
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4448,23 +4794,23 @@
         <v>5</v>
       </c>
       <c r="B37">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>5</v>
       </c>
-      <c r="B38" s="4">
-        <v>33</v>
+      <c r="B38">
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>5</v>
       </c>
-      <c r="B39">
-        <v>34</v>
+      <c r="B39" s="4">
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4472,23 +4818,23 @@
         <v>5</v>
       </c>
       <c r="B40">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>5</v>
       </c>
-      <c r="B41" s="4">
-        <v>36</v>
+      <c r="B41">
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>5</v>
       </c>
-      <c r="B42">
-        <v>37</v>
+      <c r="B42" s="4">
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4496,203 +4842,211 @@
         <v>5</v>
       </c>
       <c r="B43">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>5</v>
       </c>
-      <c r="B44" s="4">
-        <v>39</v>
+      <c r="B44">
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>5</v>
       </c>
-      <c r="B45">
-        <v>40</v>
+      <c r="B45" s="4">
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>6</v>
-      </c>
-      <c r="C46">
-        <v>16</v>
-      </c>
-      <c r="D46">
         <v>5</v>
+      </c>
+      <c r="B46">
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="C47">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>7</v>
-      </c>
-      <c r="D48">
-        <v>6</v>
+        <v>6.5</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>7.5</v>
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>7.5</v>
       </c>
-      <c r="C50">
-        <v>14</v>
-      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="C51">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="D52">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>9</v>
-      </c>
-      <c r="C53">
-        <v>12</v>
+        <v>8.5</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="C54">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>10</v>
-      </c>
-      <c r="D55">
-        <v>8</v>
+        <v>9.5</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>10.5</v>
-      </c>
-      <c r="C56">
         <v>10</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="D58">
+        <v>11</v>
+      </c>
+      <c r="C58">
         <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>12</v>
-      </c>
-      <c r="C59">
-        <v>8</v>
+        <v>11.5</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="C60">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>13</v>
+        <v>12.5</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="C62">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="C63">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <v>20</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <v>0</v>
       </c>
     </row>
@@ -4706,10 +5060,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad6"/>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I107"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4727,228 +5081,254 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>41</v>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -4960,11 +5340,9 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad7"/>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B82"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4973,10 +5351,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4984,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4992,7 +5370,7 @@
         <v>0.5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5000,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5008,7 +5386,7 @@
         <v>1.5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5016,7 +5394,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5024,7 +5402,7 @@
         <v>2.5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5032,7 +5410,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5040,7 +5418,7 @@
         <v>3.5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5048,7 +5426,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5056,7 +5434,7 @@
         <v>4.5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5064,7 +5442,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5072,7 +5450,7 @@
         <v>5.5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5080,7 +5458,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5088,7 +5466,7 @@
         <v>6.5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5096,7 +5474,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5104,7 +5482,7 @@
         <v>7.5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5112,7 +5490,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5120,7 +5498,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5128,7 +5506,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5136,7 +5514,7 @@
         <v>9.5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5144,7 +5522,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5152,7 +5530,7 @@
         <v>10.5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5160,7 +5538,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5168,7 +5546,7 @@
         <v>11.5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5176,7 +5554,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5184,7 +5562,7 @@
         <v>12.5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5192,7 +5570,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -5200,7 +5578,7 @@
         <v>13.5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -5208,7 +5586,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -5216,7 +5594,7 @@
         <v>14.5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -5560,7 +5938,7 @@
         <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -5568,7 +5946,7 @@
         <v>36.5</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -5576,7 +5954,7 @@
         <v>37</v>
       </c>
       <c r="B76" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -5584,7 +5962,7 @@
         <v>37.5</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -5592,7 +5970,7 @@
         <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -5600,7 +5978,7 @@
         <v>38.5</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -5608,7 +5986,7 @@
         <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -5616,7 +5994,7 @@
         <v>39.5</v>
       </c>
       <c r="B81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -5624,7 +6002,127 @@
         <v>40</v>
       </c>
       <c r="B82" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>40.5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>41</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>41.5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>42</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>42.5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>43</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>43.5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>44</v>
+      </c>
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>44.5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
         <v>45</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>45.5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>46</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>46.5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>47</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>47.5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/AED withdrawal relapse risk calculator.xlsx
+++ b/AED withdrawal relapse risk calculator.xlsx
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="58">
-  <si>
-    <t>Nomogram Points</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="58">
   <si>
     <t>ttsf</t>
   </si>
@@ -103,9 +100,6 @@
   </si>
   <si>
     <t>≥24</t>
-  </si>
-  <si>
-    <t>Total score</t>
   </si>
   <si>
     <t>Risk.2y</t>
@@ -316,11 +310,14 @@
     <t>(select one)</t>
   </si>
   <si>
-    <t>Date of version calculation sheet: 2017-03-16</t>
+    <t>NomogramPoints</t>
+  </si>
+  <si>
+    <t>TotalScore</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Calculation of individual seizure outcome of AED withdrawal for seizure free people with epilepsy. Calculations are based on nomograms as presented in Lamberink et al., </t>
+      <t xml:space="preserve">Calculation of individual seizure outcome of AED withdrawal for seizure free people with epilepsy. Calculations are based on nomograms as presented in </t>
     </r>
     <r>
       <rPr>
@@ -332,7 +329,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Journal</t>
+      <t>The Lancet Neurology 2017</t>
     </r>
     <r>
       <rPr>
@@ -343,7 +340,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, vol(issue):pp-pp.
+      <t xml:space="preserve">, published online May 5, DOI http://dx.doi.org/10.1016/S1474-4422(17)30114-X 
 </t>
     </r>
     <r>
@@ -359,7 +356,10 @@
     </r>
   </si>
   <si>
-    <t>Reference: Journal. 2017. Vol(issue):pp-pp</t>
+    <t xml:space="preserve">Reference: The Lancet Neurology 2017, published online May 5, DOI http://dx.doi.org/10.1016/S1474-4422(17)30114-X </t>
+  </si>
+  <si>
+    <t>Date of version calculation sheet: 2017-05-10</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -555,21 +555,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -579,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -597,10 +582,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -986,7 +967,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,279 +981,279 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="A1" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <f>INDEX(Recur.nomogram!A2:I108,MATCH(B3,Recur.nomogram!B2:B108,0),1)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="20">
         <f>INDEX(Long.nomogram!A2:I69,MATCH(B3,Long.nomogram!B2:B69,0),1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>50</v>
+      <c r="A4" s="33" t="s">
+        <v>48</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="21">
+        <v>52</v>
+      </c>
+      <c r="C4" s="20">
         <f>INDEX(Recur.nomogram!A2:I108,MATCH(B4,Recur.nomogram!C2:C108,0),1)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <f>INDEX(Long.nomogram!A2:I69,MATCH(B4,Long.nomogram!C2:C69,0),1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>35</v>
+      <c r="A5" s="24" t="s">
+        <v>33</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21">
+        <v>52</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20">
         <f>INDEX(Long.nomogram!A2:I69,MATCH(B5,Long.nomogram!D2:D69,0),1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>36</v>
+      <c r="A6" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21">
+        <v>52</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20">
         <f>INDEX(Long.nomogram!A2:I69,MATCH(B6,Long.nomogram!E2:E69,0),1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>53</v>
+      <c r="A7" s="24" t="s">
+        <v>51</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="21">
+        <v>52</v>
+      </c>
+      <c r="C7" s="20">
         <f>INDEX(Recur.nomogram!A2:I108,MATCH(B7,Recur.nomogram!D2:D108,0),1)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>44</v>
+      <c r="A8" s="24" t="s">
+        <v>42</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21">
+        <v>52</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20">
         <f>INDEX(Long.nomogram!A2:I69,MATCH(B8,Long.nomogram!F2:F69,0),1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>18</v>
+      <c r="A9" s="24" t="s">
+        <v>17</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="21">
+        <v>52</v>
+      </c>
+      <c r="C9" s="20">
         <f>INDEX(Recur.nomogram!A2:I108,MATCH(B9,Recur.nomogram!E2:E108,0),1)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>46</v>
+      <c r="A10" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="21">
+        <v>52</v>
+      </c>
+      <c r="C10" s="20">
         <f>INDEX(Recur.nomogram!A2:I108,MATCH(B10,Recur.nomogram!F2:F108,0),1)</f>
         <v>0</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <f>INDEX(Long.nomogram!A2:I69,MATCH(B10,Long.nomogram!G2:G69,0),1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>45</v>
+      <c r="A11" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="21">
+        <v>52</v>
+      </c>
+      <c r="C11" s="20">
         <f>INDEX(Recur.nomogram!A2:I108,MATCH(B11,Recur.nomogram!G2:G108,0),1)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="21"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>37</v>
+      <c r="A12" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21">
+        <v>52</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20">
         <f>INDEX(Long.nomogram!A2:I69,MATCH(B12,Long.nomogram!H2:H69,0),1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>19</v>
+      <c r="A13" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="21">
+        <v>52</v>
+      </c>
+      <c r="C13" s="20">
         <f>INDEX(Recur.nomogram!A2:I108,MATCH(B13,Recur.nomogram!H2:H108,0),1)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="21"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="22">
+      <c r="A14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="21">
         <f>INDEX(Recur.nomogram!A2:I108,MATCH(B14,Recur.nomogram!I2:I108,0),1)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <f>INDEX(Long.nomogram!A2:I69,MATCH(B14,Long.nomogram!I2:I69,0),1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="15">
+      <c r="A15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="14">
         <f>SUM(C3:C14)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <f>SUM(D3:D14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15" t="str">
+        <f>INDEX(Recur.risk!A2:C121,MATCH(C15,Recur.risk!A2:A121,0),2)</f>
+        <v>&lt;10%</v>
+      </c>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="16" t="str">
-        <f>INDEX(Recur.risk!A2:C114,MATCH(C15,Recur.risk!A2:A114,0),2)</f>
+      <c r="C18" s="17" t="str">
+        <f>INDEX(Recur.risk!A2:C121,MATCH(C15,Recur.risk!A2:A121,0),3)</f>
         <v>&lt;10%</v>
       </c>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="18" t="str">
-        <f>INDEX(Recur.risk!A2:C114,MATCH(C15,Recur.risk!A2:A114,0),3)</f>
-        <v>&lt;10%</v>
-      </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="33" t="str">
+      <c r="A19" s="12"/>
+      <c r="B19" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="32" t="str">
         <f>INDEX(Long.risk!A2:B97,MATCH(D15,Long.risk!A2:A97,0),2)</f>
         <v>&gt;99%</v>
       </c>
-      <c r="E19" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-    </row>
-    <row r="20" spans="1:7" s="29" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="E19" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+    </row>
+    <row r="20" spans="1:7" s="28" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8D79" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="995D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E19:E20"/>
@@ -1326,11 +1307,11 @@
   <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2:I107"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:I107"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:I107"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:I2"/>
+      <selection pane="bottomRight" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,60 +1323,60 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+    </row>
+    <row r="2" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>54</v>
+      <c r="B2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1406,25 +1387,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1476,7 +1457,7 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1495,7 +1476,7 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1509,7 +1490,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1520,7 +1501,7 @@
         <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1553,7 +1534,7 @@
         <v>9</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1576,7 +1557,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <v>6.5</v>
       </c>
       <c r="D18">
@@ -1584,7 +1565,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
+      <c r="A19" s="26">
         <v>6.5</v>
       </c>
       <c r="D19">
@@ -1592,7 +1573,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
+      <c r="A20" s="26">
         <v>6.5</v>
       </c>
       <c r="D20">
@@ -1600,7 +1581,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
+      <c r="A21" s="26">
         <v>6.5</v>
       </c>
       <c r="D21">
@@ -1608,7 +1589,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="26">
         <v>6.5</v>
       </c>
       <c r="D22">
@@ -1616,7 +1597,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="26">
         <v>6.5</v>
       </c>
       <c r="D23">
@@ -1624,7 +1605,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="26">
         <v>6.5</v>
       </c>
       <c r="D24">
@@ -1632,7 +1613,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
+      <c r="A25" s="26">
         <v>6.5</v>
       </c>
       <c r="D25">
@@ -1640,7 +1621,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="26">
         <v>6.5</v>
       </c>
       <c r="D26">
@@ -1648,7 +1629,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
+      <c r="A27" s="26">
         <v>6.5</v>
       </c>
       <c r="D27">
@@ -1656,7 +1637,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="27">
+      <c r="A28" s="26">
         <v>6.5</v>
       </c>
       <c r="D28">
@@ -1664,7 +1645,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="27">
+      <c r="A29" s="26">
         <v>6.5</v>
       </c>
       <c r="D29">
@@ -1672,7 +1653,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
+      <c r="A30" s="26">
         <v>6.5</v>
       </c>
       <c r="D30">
@@ -1680,7 +1661,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+      <c r="A31" s="26">
         <v>6.5</v>
       </c>
       <c r="D31">
@@ -1688,7 +1669,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
+      <c r="A32" s="26">
         <v>6.5</v>
       </c>
       <c r="D32">
@@ -1696,7 +1677,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
+      <c r="A33" s="26">
         <v>6.5</v>
       </c>
       <c r="D33">
@@ -1704,7 +1685,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
+      <c r="A34" s="26">
         <v>6.5</v>
       </c>
       <c r="D34">
@@ -1712,7 +1693,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="27">
+      <c r="A35" s="26">
         <v>6.5</v>
       </c>
       <c r="D35">
@@ -1720,7 +1701,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="27">
+      <c r="A36" s="26">
         <v>6.5</v>
       </c>
       <c r="D36">
@@ -1728,7 +1709,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
+      <c r="A37" s="26">
         <v>6.5</v>
       </c>
       <c r="D37">
@@ -1736,7 +1717,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
+      <c r="A38" s="26">
         <v>6.5</v>
       </c>
       <c r="D38">
@@ -1744,7 +1725,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
+      <c r="A39" s="26">
         <v>6.5</v>
       </c>
       <c r="D39">
@@ -2210,7 +2191,7 @@
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="27">
+      <c r="A86" s="26">
         <v>10.5</v>
       </c>
       <c r="B86">
@@ -2221,7 +2202,7 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="27">
+      <c r="A87" s="26">
         <v>10.5</v>
       </c>
       <c r="B87">
@@ -2232,7 +2213,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="27">
+      <c r="A88" s="26">
         <v>10.5</v>
       </c>
       <c r="D88">
@@ -2240,7 +2221,7 @@
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="27">
+      <c r="A89" s="26">
         <v>10.5</v>
       </c>
       <c r="D89">
@@ -2248,7 +2229,7 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="27">
+      <c r="A90" s="26">
         <v>10.5</v>
       </c>
       <c r="D90">
@@ -2256,7 +2237,7 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="27">
+      <c r="A91" s="26">
         <v>11</v>
       </c>
       <c r="D91">
@@ -2264,7 +2245,7 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="27">
+      <c r="A92" s="26">
         <v>11</v>
       </c>
       <c r="D92">
@@ -2272,7 +2253,7 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="27">
+      <c r="A93" s="26">
         <v>11</v>
       </c>
       <c r="D93">
@@ -2280,7 +2261,7 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="27">
+      <c r="A94" s="26">
         <v>11</v>
       </c>
       <c r="D94">
@@ -2288,7 +2269,7 @@
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="27">
+      <c r="A95" s="26">
         <v>11</v>
       </c>
       <c r="D95">
@@ -2369,7 +2350,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -2400,7 +2381,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8D79" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="995D" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2411,7 +2392,7 @@
   <sheetPr codeName="Blad3"/>
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2419,54 +2400,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>54</v>
+      <c r="A2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2480,19 +2461,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2506,19 +2487,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2768,7 +2749,7 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27">
         <v>24</v>
@@ -3103,7 +3084,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8D79" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="995D" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3112,10 +3093,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Blad4"/>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3125,13 +3106,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -3139,1246 +3120,1323 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4.5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5.5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6.5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7.5</v>
-      </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.1</v>
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.10666666666666667</v>
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0.11333333333333334</v>
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.12000000000000002</v>
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0.12666666666666668</v>
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0.13333333333333336</v>
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>16</v>
-      </c>
-      <c r="B27" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.14000000000000001</v>
+        <v>12.5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>16.5</v>
-      </c>
-      <c r="B28" s="5">
-        <v>0.10625000000000001</v>
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="5">
-        <v>0.1466666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>17</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0.1125</v>
+        <v>13.5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
       </c>
       <c r="C29" s="5">
-        <v>0.15333333333333338</v>
+        <v>0.10666666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>17.5</v>
-      </c>
-      <c r="B30" s="5">
-        <v>0.11875000000000001</v>
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
       </c>
       <c r="C30" s="5">
-        <v>0.16000000000000003</v>
+        <v>0.11333333333333334</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>18</v>
-      </c>
-      <c r="B31" s="5">
-        <v>0.125</v>
+        <v>14.5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
       </c>
       <c r="C31" s="5">
-        <v>0.16666666666666669</v>
+        <v>0.12000000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>18.5</v>
-      </c>
-      <c r="B32" s="5">
-        <v>0.13125000000000001</v>
+        <v>15</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
       </c>
       <c r="C32" s="5">
-        <v>0.17333333333333337</v>
+        <v>0.12666666666666668</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>19</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0.13750000000000001</v>
+        <v>15.5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
       </c>
       <c r="C33" s="5">
-        <v>0.18000000000000005</v>
+        <v>0.13333333333333336</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="B34" s="5">
-        <v>0.14375000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="C34" s="5">
-        <v>0.1866666666666667</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="B35" s="5">
-        <v>0.15000000000000002</v>
+        <v>0.10625000000000001</v>
       </c>
       <c r="C35" s="5">
-        <v>0.19333333333333338</v>
+        <v>0.1466666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>20.5</v>
+        <v>17</v>
       </c>
       <c r="B36" s="5">
-        <v>0.15625</v>
+        <v>0.1125</v>
       </c>
       <c r="C36" s="5">
-        <v>0.20000000000000007</v>
+        <v>0.15333333333333338</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="B37" s="5">
-        <v>0.16250000000000001</v>
+        <v>0.11875000000000001</v>
       </c>
       <c r="C37" s="5">
-        <v>0.21111111111111117</v>
+        <v>0.16000000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>21.5</v>
+        <v>18</v>
       </c>
       <c r="B38" s="5">
-        <v>0.16875000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="C38" s="5">
-        <v>0.22222222222222227</v>
+        <v>0.16666666666666669</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="B39" s="5">
-        <v>0.17500000000000002</v>
+        <v>0.13125000000000001</v>
       </c>
       <c r="C39" s="5">
-        <v>0.23333333333333336</v>
+        <v>0.17333333333333337</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>22.5</v>
+        <v>19</v>
       </c>
       <c r="B40" s="5">
-        <v>0.18125000000000002</v>
+        <v>0.13750000000000001</v>
       </c>
       <c r="C40" s="5">
-        <v>0.24444444444444446</v>
+        <v>0.18000000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="B41" s="5">
-        <v>0.1875</v>
+        <v>0.14375000000000002</v>
       </c>
       <c r="C41" s="5">
-        <v>0.25555555555555554</v>
+        <v>0.1866666666666667</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>23.5</v>
+        <v>20</v>
       </c>
       <c r="B42" s="5">
-        <v>0.19375000000000001</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="C42" s="5">
-        <v>0.26666666666666666</v>
+        <v>0.19333333333333338</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>24</v>
+        <v>20.5</v>
       </c>
       <c r="B43" s="5">
-        <v>0.2</v>
+        <v>0.15625</v>
       </c>
       <c r="C43" s="5">
-        <v>0.27777777777777779</v>
+        <v>0.20000000000000007</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>24.5</v>
+        <v>21</v>
       </c>
       <c r="B44" s="5">
-        <v>0.21111111111111111</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="C44" s="5">
-        <v>0.28888888888888886</v>
+        <v>0.21111111111111117</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>25</v>
+        <v>21.5</v>
       </c>
       <c r="B45" s="5">
-        <v>0.22222222222222221</v>
+        <v>0.16875000000000001</v>
       </c>
       <c r="C45" s="5">
-        <v>0.29999999999999993</v>
+        <v>0.22222222222222227</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>25.5</v>
+        <v>22</v>
       </c>
       <c r="B46" s="5">
-        <v>0.23333333333333331</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="C46" s="5">
-        <v>0.31249999999999994</v>
+        <v>0.23333333333333336</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>26</v>
+        <v>22.5</v>
       </c>
       <c r="B47" s="5">
-        <v>0.24444444444444441</v>
+        <v>0.18125000000000002</v>
       </c>
       <c r="C47" s="5">
-        <v>0.32499999999999996</v>
+        <v>0.24444444444444446</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>26.5</v>
+        <v>23</v>
       </c>
       <c r="B48" s="5">
+        <v>0.1875</v>
+      </c>
+      <c r="C48" s="5">
         <v>0.25555555555555554</v>
-      </c>
-      <c r="C48" s="5">
-        <v>0.33749999999999991</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>27</v>
+        <v>23.5</v>
       </c>
       <c r="B49" s="5">
-        <v>0.26666666666666661</v>
+        <v>0.19375000000000001</v>
       </c>
       <c r="C49" s="5">
-        <v>0.34999999999999992</v>
+        <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>27.5</v>
+        <v>24</v>
       </c>
       <c r="B50" s="5">
-        <v>0.27777777777777768</v>
+        <v>0.2</v>
       </c>
       <c r="C50" s="5">
-        <v>0.36249999999999993</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>28</v>
+        <v>24.5</v>
       </c>
       <c r="B51" s="5">
-        <v>0.28888888888888881</v>
+        <v>0.21111111111111111</v>
       </c>
       <c r="C51" s="5">
-        <v>0.37499999999999994</v>
+        <v>0.28888888888888886</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>28.5</v>
+        <v>25</v>
       </c>
       <c r="B52" s="5">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="C52" s="5">
         <v>0.29999999999999993</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0.38749999999999996</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>29</v>
+        <v>25.5</v>
       </c>
       <c r="B53" s="5">
-        <v>0.31428571428571422</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="C53" s="5">
-        <v>0.39999999999999991</v>
+        <v>0.31249999999999994</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>29.5</v>
+        <v>26</v>
       </c>
       <c r="B54" s="5">
-        <v>0.32857142857142851</v>
+        <v>0.24444444444444441</v>
       </c>
       <c r="C54" s="5">
-        <v>0.41666666666666663</v>
+        <v>0.32499999999999996</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>30</v>
+        <v>26.5</v>
       </c>
       <c r="B55" s="5">
-        <v>0.34285714285714286</v>
+        <v>0.25555555555555554</v>
       </c>
       <c r="C55" s="5">
-        <v>0.43333333333333329</v>
+        <v>0.33749999999999991</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>30.5</v>
+        <v>27</v>
       </c>
       <c r="B56" s="5">
-        <v>0.35714285714285715</v>
+        <v>0.26666666666666661</v>
       </c>
       <c r="C56" s="5">
-        <v>0.45</v>
+        <v>0.34999999999999992</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>31</v>
+        <v>27.5</v>
       </c>
       <c r="B57" s="5">
-        <v>0.37142857142857144</v>
+        <v>0.27777777777777768</v>
       </c>
       <c r="C57" s="5">
-        <v>0.46666666666666673</v>
+        <v>0.36249999999999993</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>31.5</v>
+        <v>28</v>
       </c>
       <c r="B58" s="5">
-        <v>0.38571428571428573</v>
+        <v>0.28888888888888881</v>
       </c>
       <c r="C58" s="5">
-        <v>0.48333333333333339</v>
+        <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>32</v>
+        <v>28.5</v>
       </c>
       <c r="B59" s="5">
-        <v>0.4</v>
+        <v>0.29999999999999993</v>
       </c>
       <c r="C59" s="5">
-        <v>0.50000000000000011</v>
+        <v>0.38749999999999996</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>32.5</v>
+        <v>29</v>
       </c>
       <c r="B60" s="5">
-        <v>0.41428571428571431</v>
+        <v>0.31428571428571422</v>
       </c>
       <c r="C60" s="5">
-        <v>0.51666666666666672</v>
+        <v>0.39999999999999991</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>33</v>
+        <v>29.5</v>
       </c>
       <c r="B61" s="5">
-        <v>0.4285714285714286</v>
+        <v>0.32857142857142851</v>
       </c>
       <c r="C61" s="5">
-        <v>0.53333333333333333</v>
+        <v>0.41666666666666663</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>33.5</v>
+        <v>30</v>
       </c>
       <c r="B62" s="5">
-        <v>0.44285714285714295</v>
+        <v>0.34285714285714286</v>
       </c>
       <c r="C62" s="5">
-        <v>0.54999999999999993</v>
+        <v>0.43333333333333329</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>34</v>
+        <v>30.5</v>
       </c>
       <c r="B63" s="5">
-        <v>0.45714285714285724</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="C63" s="5">
-        <v>0.56666666666666654</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>34.5</v>
+        <v>31</v>
       </c>
       <c r="B64" s="5">
-        <v>0.47142857142857153</v>
+        <v>0.37142857142857144</v>
       </c>
       <c r="C64" s="5">
-        <v>0.58333333333333315</v>
+        <v>0.46666666666666673</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>35</v>
+        <v>31.5</v>
       </c>
       <c r="B65" s="5">
-        <v>0.48571428571428582</v>
+        <v>0.38571428571428573</v>
       </c>
       <c r="C65" s="5">
-        <v>0.59999999999999976</v>
+        <v>0.48333333333333339</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>35.5</v>
+        <v>32</v>
       </c>
       <c r="B66" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="C66" s="5">
         <v>0.50000000000000011</v>
-      </c>
-      <c r="C66" s="5">
-        <v>0.61999999999999977</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>36</v>
+        <v>32.5</v>
       </c>
       <c r="B67" s="5">
+        <v>0.41428571428571431</v>
+      </c>
+      <c r="C67" s="5">
         <v>0.51666666666666672</v>
-      </c>
-      <c r="C67" s="5">
-        <v>0.63999999999999979</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>36.5</v>
+        <v>33</v>
       </c>
       <c r="B68" s="5">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="C68" s="5">
         <v>0.53333333333333333</v>
-      </c>
-      <c r="C68" s="5">
-        <v>0.6599999999999997</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>37</v>
+        <v>33.5</v>
       </c>
       <c r="B69" s="5">
+        <v>0.44285714285714295</v>
+      </c>
+      <c r="C69" s="5">
         <v>0.54999999999999993</v>
-      </c>
-      <c r="C69" s="5">
-        <v>0.67999999999999972</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>37.5</v>
+        <v>34</v>
       </c>
       <c r="B70" s="5">
+        <v>0.45714285714285724</v>
+      </c>
+      <c r="C70" s="5">
         <v>0.56666666666666654</v>
-      </c>
-      <c r="C70" s="5">
-        <v>0.69999999999999973</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>38</v>
+        <v>34.5</v>
       </c>
       <c r="B71" s="5">
+        <v>0.47142857142857153</v>
+      </c>
+      <c r="C71" s="5">
         <v>0.58333333333333315</v>
-      </c>
-      <c r="C71" s="5">
-        <v>0.71666666666666645</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>38.5</v>
+        <v>35</v>
       </c>
       <c r="B72" s="5">
+        <v>0.48571428571428582</v>
+      </c>
+      <c r="C72" s="5">
         <v>0.59999999999999976</v>
-      </c>
-      <c r="C72" s="5">
-        <v>0.73333333333333317</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>39</v>
+        <v>35.5</v>
       </c>
       <c r="B73" s="5">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="C73" s="5">
         <v>0.61999999999999977</v>
-      </c>
-      <c r="C73" s="5">
-        <v>0.74999999999999978</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>39.5</v>
+        <v>36</v>
       </c>
       <c r="B74" s="5">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="C74" s="5">
         <v>0.63999999999999979</v>
-      </c>
-      <c r="C74" s="5">
-        <v>0.7666666666666665</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>40</v>
+        <v>36.5</v>
       </c>
       <c r="B75" s="5">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="C75" s="5">
         <v>0.6599999999999997</v>
-      </c>
-      <c r="C75" s="5">
-        <v>0.78333333333333321</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>40.5</v>
+        <v>37</v>
       </c>
       <c r="B76" s="5">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="C76" s="5">
         <v>0.67999999999999972</v>
-      </c>
-      <c r="C76" s="5">
-        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>41</v>
+        <v>37.5</v>
       </c>
       <c r="B77" s="5">
+        <v>0.56666666666666654</v>
+      </c>
+      <c r="C77" s="5">
         <v>0.69999999999999973</v>
-      </c>
-      <c r="C77" s="5">
-        <v>0.81428571428571428</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>41.5</v>
+        <v>38</v>
       </c>
       <c r="B78" s="5">
+        <v>0.58333333333333315</v>
+      </c>
+      <c r="C78" s="5">
         <v>0.71666666666666645</v>
-      </c>
-      <c r="C78" s="5">
-        <v>0.82857142857142851</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>42</v>
+        <v>38.5</v>
       </c>
       <c r="B79" s="5">
+        <v>0.59999999999999976</v>
+      </c>
+      <c r="C79" s="5">
         <v>0.73333333333333317</v>
-      </c>
-      <c r="C79" s="5">
-        <v>0.84285714285714286</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>42.5</v>
+        <v>39</v>
       </c>
       <c r="B80" s="5">
+        <v>0.61999999999999977</v>
+      </c>
+      <c r="C80" s="5">
         <v>0.74999999999999978</v>
-      </c>
-      <c r="C80" s="5">
-        <v>0.8571428571428571</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>43</v>
+        <v>39.5</v>
       </c>
       <c r="B81" s="5">
+        <v>0.63999999999999979</v>
+      </c>
+      <c r="C81" s="5">
         <v>0.7666666666666665</v>
-      </c>
-      <c r="C81" s="5">
-        <v>0.87142857142857144</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>43.5</v>
+        <v>40</v>
       </c>
       <c r="B82" s="5">
+        <v>0.6599999999999997</v>
+      </c>
+      <c r="C82" s="5">
         <v>0.78333333333333321</v>
-      </c>
-      <c r="C82" s="5">
-        <v>0.88571428571428568</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>44</v>
+        <v>40.5</v>
       </c>
       <c r="B83" s="5">
+        <v>0.67999999999999972</v>
+      </c>
+      <c r="C83" s="5">
         <v>0.79999999999999993</v>
-      </c>
-      <c r="C83" s="5">
-        <v>0.9</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>44.5</v>
+        <v>41</v>
       </c>
       <c r="B84" s="5">
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="C84" s="5">
         <v>0.81428571428571428</v>
-      </c>
-      <c r="C84" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>45</v>
+        <v>41.5</v>
       </c>
       <c r="B85" s="5">
+        <v>0.71666666666666645</v>
+      </c>
+      <c r="C85" s="5">
         <v>0.82857142857142851</v>
-      </c>
-      <c r="C85" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>45.5</v>
+        <v>42</v>
       </c>
       <c r="B86" s="5">
+        <v>0.73333333333333317</v>
+      </c>
+      <c r="C86" s="5">
         <v>0.84285714285714286</v>
-      </c>
-      <c r="C86" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>46</v>
+        <v>42.5</v>
       </c>
       <c r="B87" s="5">
+        <v>0.74999999999999978</v>
+      </c>
+      <c r="C87" s="5">
         <v>0.8571428571428571</v>
-      </c>
-      <c r="C87" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>46.5</v>
+        <v>43</v>
       </c>
       <c r="B88" s="5">
+        <v>0.7666666666666665</v>
+      </c>
+      <c r="C88" s="5">
         <v>0.87142857142857144</v>
-      </c>
-      <c r="C88" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>47</v>
+        <v>43.5</v>
       </c>
       <c r="B89" s="5">
+        <v>0.78333333333333321</v>
+      </c>
+      <c r="C89" s="5">
         <v>0.88571428571428568</v>
-      </c>
-      <c r="C89" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>47.5</v>
+        <v>44</v>
       </c>
       <c r="B90" s="5">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="C90" s="5">
         <v>0.9</v>
-      </c>
-      <c r="C90" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>48</v>
-      </c>
-      <c r="B91" t="s">
-        <v>27</v>
+        <v>44.5</v>
+      </c>
+      <c r="B91" s="5">
+        <v>0.81428571428571428</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>48.5</v>
-      </c>
-      <c r="B92" t="s">
-        <v>27</v>
+        <v>45</v>
+      </c>
+      <c r="B92" s="5">
+        <v>0.82857142857142851</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>49</v>
-      </c>
-      <c r="B93" t="s">
-        <v>27</v>
+        <v>45.5</v>
+      </c>
+      <c r="B93" s="5">
+        <v>0.84285714285714286</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>49.5</v>
-      </c>
-      <c r="B94" t="s">
-        <v>27</v>
+        <v>46</v>
+      </c>
+      <c r="B94" s="5">
+        <v>0.8571428571428571</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>50</v>
-      </c>
-      <c r="B95" t="s">
-        <v>27</v>
+        <v>46.5</v>
+      </c>
+      <c r="B95" s="5">
+        <v>0.87142857142857144</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>50.5</v>
-      </c>
-      <c r="B96" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.88571428571428568</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>51</v>
-      </c>
-      <c r="B97" t="s">
-        <v>27</v>
+        <v>47.5</v>
+      </c>
+      <c r="B97" s="5">
+        <v>0.9</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>51.5</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>52</v>
+        <v>48.5</v>
       </c>
       <c r="B99" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>52.5</v>
+        <v>49</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>53</v>
+        <v>49.5</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>53.5</v>
+        <v>50</v>
       </c>
       <c r="B102" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>54</v>
+        <v>50.5</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>54.5</v>
+        <v>51</v>
       </c>
       <c r="B104" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>55</v>
+        <v>51.5</v>
       </c>
       <c r="B105" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>55.5</v>
+        <v>52</v>
       </c>
       <c r="B106" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>56</v>
+        <v>52.5</v>
       </c>
       <c r="B107" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>56.5</v>
+        <v>53</v>
       </c>
       <c r="B108" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>57</v>
+        <v>53.5</v>
       </c>
       <c r="B109" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>57.5</v>
+        <v>54</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>58</v>
+        <v>54.5</v>
       </c>
       <c r="B111" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>58.5</v>
+        <v>55</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>59</v>
+        <v>55.5</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
+        <v>56</v>
+      </c>
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>56.5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>57</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>57.5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>58</v>
+      </c>
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>58.5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>59</v>
+      </c>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>59.5</v>
       </c>
-      <c r="B114" t="s">
-        <v>27</v>
-      </c>
-      <c r="C114" t="s">
-        <v>27</v>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8D79" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="995D" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4393,7 +4451,7 @@
       <selection activeCell="A2" sqref="A2:I107"/>
       <selection pane="topRight" activeCell="A2" sqref="A2:I107"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:I107"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:I2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4404,60 +4462,60 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34">
         <v>0</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="36" t="s">
-        <v>54</v>
+      <c r="B2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -4468,25 +4526,25 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -4511,7 +4569,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4522,10 +4580,10 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -4536,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -4553,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5051,7 +5109,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8D79" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="995D" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5075,54 +5133,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>54</v>
+      <c r="A2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5136,19 +5194,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5162,19 +5220,19 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5223,7 +5281,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -5328,11 +5386,11 @@
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8D79" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="995D" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5351,10 +5409,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5362,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -5370,7 +5428,7 @@
         <v>0.5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -5378,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5386,7 +5444,7 @@
         <v>1.5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -5394,7 +5452,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5402,7 +5460,7 @@
         <v>2.5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5410,7 +5468,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -5418,7 +5476,7 @@
         <v>3.5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -5426,7 +5484,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -5434,7 +5492,7 @@
         <v>4.5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5442,7 +5500,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -5450,7 +5508,7 @@
         <v>5.5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5458,7 +5516,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -5466,7 +5524,7 @@
         <v>6.5</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -5474,7 +5532,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -5482,7 +5540,7 @@
         <v>7.5</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -5490,7 +5548,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -5498,7 +5556,7 @@
         <v>8.5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -5506,7 +5564,7 @@
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -5514,7 +5572,7 @@
         <v>9.5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -5522,7 +5580,7 @@
         <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -5530,7 +5588,7 @@
         <v>10.5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -5538,7 +5596,7 @@
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -5546,7 +5604,7 @@
         <v>11.5</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -5554,7 +5612,7 @@
         <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -5562,7 +5620,7 @@
         <v>12.5</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -5570,7 +5628,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -5578,7 +5636,7 @@
         <v>13.5</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -5586,7 +5644,7 @@
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -5594,7 +5652,7 @@
         <v>14.5</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -5938,7 +5996,7 @@
         <v>36</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -5946,7 +6004,7 @@
         <v>36.5</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -5954,7 +6012,7 @@
         <v>37</v>
       </c>
       <c r="B76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -5962,7 +6020,7 @@
         <v>37.5</v>
       </c>
       <c r="B77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -5970,7 +6028,7 @@
         <v>38</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -5978,7 +6036,7 @@
         <v>38.5</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -5986,7 +6044,7 @@
         <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -5994,7 +6052,7 @@
         <v>39.5</v>
       </c>
       <c r="B81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -6002,7 +6060,7 @@
         <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -6010,7 +6068,7 @@
         <v>40.5</v>
       </c>
       <c r="B83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -6018,7 +6076,7 @@
         <v>41</v>
       </c>
       <c r="B84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -6026,7 +6084,7 @@
         <v>41.5</v>
       </c>
       <c r="B85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -6034,7 +6092,7 @@
         <v>42</v>
       </c>
       <c r="B86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -6042,7 +6100,7 @@
         <v>42.5</v>
       </c>
       <c r="B87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -6050,7 +6108,7 @@
         <v>43</v>
       </c>
       <c r="B88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -6058,7 +6116,7 @@
         <v>43.5</v>
       </c>
       <c r="B89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -6066,7 +6124,7 @@
         <v>44</v>
       </c>
       <c r="B90" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -6074,7 +6132,7 @@
         <v>44.5</v>
       </c>
       <c r="B91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -6082,7 +6140,7 @@
         <v>45</v>
       </c>
       <c r="B92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -6090,7 +6148,7 @@
         <v>45.5</v>
       </c>
       <c r="B93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -6098,7 +6156,7 @@
         <v>46</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -6106,7 +6164,7 @@
         <v>46.5</v>
       </c>
       <c r="B95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -6114,7 +6172,7 @@
         <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -6122,11 +6180,11 @@
         <v>47.5</v>
       </c>
       <c r="B97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8D79" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="995D" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
